--- a/statistical-tests/drflp.xlsx
+++ b/statistical-tests/drflp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aherrang/Library/CloudStorage/OneDrive-UniversidadReyJuanCarlos/Work/6. Investigacion/Work/Problems/LAYOUT/DRFLP/Software/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chema/Downloads/DRFLP-1.1/statistical-tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F149CB-E8E5-C047-818D-40CAC51F8879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC7CA94-4315-CE4E-A1D7-2AB11FDDB5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,9 +184,6 @@
     <t>A70_05</t>
   </si>
   <si>
-    <t>IG</t>
-  </si>
-  <si>
     <t>H4</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>H3</t>
+  </si>
+  <si>
+    <t>MS-IG</t>
   </si>
 </sst>
 </file>
@@ -690,48 +690,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -747,7 +747,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
